--- a/Data/Tax/ExtIV.xlsx
+++ b/Data/Tax/ExtIV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzahusain/Library/Mobile Documents/com~apple~CloudDocs/Desktop/RA/SVARIV/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzahusain/Library/Mobile Documents/com~apple~CloudDocs/Desktop/RA/SVARIV/Data/Tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>All (PS2007)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,16 +344,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
     </row>
@@ -428,12 +424,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>-2.6080045763673896</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>-2.6080045763673896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -503,22 +499,22 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>-1.3454306696574214</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>-1.3454306696574214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>-0.30546418762349148</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>-0.30546418762349148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -543,12 +539,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>-2.4139007678766031</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>-2.4139007678766031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -563,22 +559,22 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>0</v>
+        <v>0.79458671810302139</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>0.79458671810302139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>1.0802218480105403</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>1.0802218480105403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -623,12 +619,12 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>-1.9452975829422874</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>-1.9452975829422874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -648,11 +644,6 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
         <v>0</v>
       </c>
     </row>
